--- a/Code/Results/Cases/Case_2_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015800374697453</v>
+        <v>1.038726317646665</v>
       </c>
       <c r="D2">
-        <v>1.030471903839198</v>
+        <v>1.041321537703689</v>
       </c>
       <c r="E2">
-        <v>1.02370367065003</v>
+        <v>1.056370576205585</v>
       </c>
       <c r="F2">
-        <v>1.032105436795641</v>
+        <v>1.063060475827773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052836690756917</v>
+        <v>1.042593218532114</v>
       </c>
       <c r="J2">
-        <v>1.03751855530562</v>
+        <v>1.043822191797132</v>
       </c>
       <c r="K2">
-        <v>1.041522432364796</v>
+        <v>1.044101382770303</v>
       </c>
       <c r="L2">
-        <v>1.034842364837033</v>
+        <v>1.059108472584678</v>
       </c>
       <c r="M2">
-        <v>1.043134902926462</v>
+        <v>1.065780137225344</v>
       </c>
       <c r="N2">
-        <v>1.016154032488132</v>
+        <v>1.018510623207622</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020481003440247</v>
+        <v>1.03968169000082</v>
       </c>
       <c r="D3">
-        <v>1.033923779676621</v>
+        <v>1.042038172224527</v>
       </c>
       <c r="E3">
-        <v>1.028621219455875</v>
+        <v>1.057484924250156</v>
       </c>
       <c r="F3">
-        <v>1.037225942156148</v>
+        <v>1.06420815509101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054595353031925</v>
+        <v>1.042884144298797</v>
       </c>
       <c r="J3">
-        <v>1.040428491040872</v>
+        <v>1.044422446679903</v>
       </c>
       <c r="K3">
-        <v>1.044140246752444</v>
+        <v>1.044628868010215</v>
       </c>
       <c r="L3">
-        <v>1.038900529222116</v>
+        <v>1.06003568074297</v>
       </c>
       <c r="M3">
-        <v>1.047403675685914</v>
+        <v>1.066741918185743</v>
       </c>
       <c r="N3">
-        <v>1.017138242386931</v>
+        <v>1.018712133983734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023442515824333</v>
+        <v>1.04029984720686</v>
       </c>
       <c r="D4">
-        <v>1.036110007481064</v>
+        <v>1.042501809280626</v>
       </c>
       <c r="E4">
-        <v>1.031742342186837</v>
+        <v>1.058206903004421</v>
       </c>
       <c r="F4">
-        <v>1.04047387010177</v>
+        <v>1.064951550039955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055697323081284</v>
+        <v>1.043071061864873</v>
       </c>
       <c r="J4">
-        <v>1.042264992065573</v>
+        <v>1.044810202944001</v>
       </c>
       <c r="K4">
-        <v>1.045791307503154</v>
+        <v>1.044969442007843</v>
       </c>
       <c r="L4">
-        <v>1.041472184157341</v>
+        <v>1.060635976154611</v>
       </c>
       <c r="M4">
-        <v>1.050107170297446</v>
+        <v>1.067364438569524</v>
       </c>
       <c r="N4">
-        <v>1.017759239352961</v>
+        <v>1.018842246554351</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024672047353086</v>
+        <v>1.04055971230747</v>
       </c>
       <c r="D5">
-        <v>1.037018134890634</v>
+        <v>1.042696703845148</v>
       </c>
       <c r="E5">
-        <v>1.033040474210791</v>
+        <v>1.058510643291825</v>
       </c>
       <c r="F5">
-        <v>1.041824262725272</v>
+        <v>1.065264257458632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056152207816856</v>
+        <v>1.043149323078024</v>
       </c>
       <c r="J5">
-        <v>1.043026302398253</v>
+        <v>1.044973059872502</v>
       </c>
       <c r="K5">
-        <v>1.046475475816061</v>
+        <v>1.045112440605457</v>
       </c>
       <c r="L5">
-        <v>1.042540810203103</v>
+        <v>1.060888419193333</v>
       </c>
       <c r="M5">
-        <v>1.051230189812286</v>
+        <v>1.067626189999342</v>
       </c>
       <c r="N5">
-        <v>1.018016628754008</v>
+        <v>1.018896879008377</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024877599478023</v>
+        <v>1.040603344309946</v>
       </c>
       <c r="D6">
-        <v>1.037169981208577</v>
+        <v>1.042729426392286</v>
       </c>
       <c r="E6">
-        <v>1.033257632380552</v>
+        <v>1.058561655545792</v>
       </c>
       <c r="F6">
-        <v>1.042050135160158</v>
+        <v>1.065316773208215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056228099962403</v>
+        <v>1.04316244476845</v>
       </c>
       <c r="J6">
-        <v>1.043153509165899</v>
+        <v>1.045000395116837</v>
       </c>
       <c r="K6">
-        <v>1.046589776878544</v>
+        <v>1.045136440203758</v>
       </c>
       <c r="L6">
-        <v>1.042719518099889</v>
+        <v>1.060930810111469</v>
       </c>
       <c r="M6">
-        <v>1.051417970955144</v>
+        <v>1.067670141784228</v>
       </c>
       <c r="N6">
-        <v>1.018059633199788</v>
+        <v>1.018906048109878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023459004982841</v>
+        <v>1.040303319569706</v>
       </c>
       <c r="D7">
-        <v>1.036122184514997</v>
+        <v>1.042504413544958</v>
       </c>
       <c r="E7">
-        <v>1.031759742105404</v>
+        <v>1.058210960731003</v>
       </c>
       <c r="F7">
-        <v>1.040491972404486</v>
+        <v>1.064955727728181</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05570343391184</v>
+        <v>1.043072108848617</v>
       </c>
       <c r="J7">
-        <v>1.042275206528743</v>
+        <v>1.044812379659064</v>
       </c>
       <c r="K7">
-        <v>1.045800488032199</v>
+        <v>1.044971353464996</v>
       </c>
       <c r="L7">
-        <v>1.041486511668855</v>
+        <v>1.060639349001138</v>
       </c>
       <c r="M7">
-        <v>1.050122228632708</v>
+        <v>1.067367935932764</v>
       </c>
       <c r="N7">
-        <v>1.017762692902657</v>
+        <v>1.018842976818916</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017396489191697</v>
+        <v>1.039049196722472</v>
       </c>
       <c r="D8">
-        <v>1.031648522383824</v>
+        <v>1.041563742363562</v>
       </c>
       <c r="E8">
-        <v>1.025378541247493</v>
+        <v>1.056746984582709</v>
       </c>
       <c r="F8">
-        <v>1.033849854829776</v>
+        <v>1.063448179976226</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053438639323539</v>
+        <v>1.042691813626883</v>
       </c>
       <c r="J8">
-        <v>1.03851181599802</v>
+        <v>1.044025184788609</v>
       </c>
       <c r="K8">
-        <v>1.042416202604158</v>
+        <v>1.044279802647854</v>
       </c>
       <c r="L8">
-        <v>1.036225376263163</v>
+        <v>1.059421758593843</v>
       </c>
       <c r="M8">
-        <v>1.044590028304136</v>
+        <v>1.066105137464375</v>
       </c>
       <c r="N8">
-        <v>1.016490005995109</v>
+        <v>1.018578782221269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006170817827114</v>
+        <v>1.036839039112034</v>
       </c>
       <c r="D9">
-        <v>1.023384581820161</v>
+        <v>1.039905636051134</v>
       </c>
       <c r="E9">
-        <v>1.0136401111008</v>
+        <v>1.054174329147056</v>
       </c>
       <c r="F9">
-        <v>1.021615388742893</v>
+        <v>1.060797587073086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049160771311349</v>
+        <v>1.042011506098652</v>
       </c>
       <c r="J9">
-        <v>1.031507534773779</v>
+        <v>1.0426330990818</v>
       </c>
       <c r="K9">
-        <v>1.036109320855193</v>
+        <v>1.043055525559526</v>
       </c>
       <c r="L9">
-        <v>1.026515696556314</v>
+        <v>1.057278737856202</v>
       </c>
       <c r="M9">
-        <v>1.034367242400131</v>
+        <v>1.063881338690812</v>
       </c>
       <c r="N9">
-        <v>1.014120335589634</v>
+        <v>1.018111115478463</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9982796483138171</v>
+        <v>1.035365464114954</v>
       </c>
       <c r="D10">
-        <v>1.017592338112971</v>
+        <v>1.038799930512709</v>
       </c>
       <c r="E10">
-        <v>1.00544071898295</v>
+        <v>1.052463972546998</v>
       </c>
       <c r="F10">
-        <v>1.013058448197663</v>
+        <v>1.059034493304574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046098970030806</v>
+        <v>1.041551141986512</v>
       </c>
       <c r="J10">
-        <v>1.026561688751685</v>
+        <v>1.041701742215055</v>
       </c>
       <c r="K10">
-        <v>1.031651059790414</v>
+        <v>1.042235555002988</v>
       </c>
       <c r="L10">
-        <v>1.019712429531851</v>
+        <v>1.055851760521005</v>
       </c>
       <c r="M10">
-        <v>1.027195864256555</v>
+        <v>1.062399761902335</v>
       </c>
       <c r="N10">
-        <v>1.012446715659094</v>
+        <v>1.017797923729422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.994755656914261</v>
+        <v>1.034727360880945</v>
       </c>
       <c r="D11">
-        <v>1.015010547901465</v>
+        <v>1.038321086547767</v>
       </c>
       <c r="E11">
-        <v>1.001791448718867</v>
+        <v>1.051724494709038</v>
       </c>
       <c r="F11">
-        <v>1.00924737522709</v>
+        <v>1.058271994940317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044719251616079</v>
+        <v>1.041350183672612</v>
       </c>
       <c r="J11">
-        <v>1.024348245938623</v>
+        <v>1.041297676889473</v>
       </c>
       <c r="K11">
-        <v>1.029654832470733</v>
+        <v>1.041879606723164</v>
       </c>
       <c r="L11">
-        <v>1.016679659834137</v>
+        <v>1.055234267338833</v>
       </c>
       <c r="M11">
-        <v>1.023996981556042</v>
+        <v>1.061758449790927</v>
       </c>
       <c r="N11">
-        <v>1.01169769938449</v>
+        <v>1.017661975424502</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9934296380569924</v>
+        <v>1.034490335762843</v>
       </c>
       <c r="D12">
-        <v>1.014039872835111</v>
+        <v>1.038143213403819</v>
       </c>
       <c r="E12">
-        <v>1.000420145842851</v>
+        <v>1.051449987519375</v>
       </c>
       <c r="F12">
-        <v>1.007814865673966</v>
+        <v>1.057988909100592</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044198274389306</v>
+        <v>1.041275295994724</v>
       </c>
       <c r="J12">
-        <v>1.023514694112039</v>
+        <v>1.041147471942907</v>
       </c>
       <c r="K12">
-        <v>1.028902945177813</v>
+        <v>1.041747257544172</v>
       </c>
       <c r="L12">
-        <v>1.01553930094578</v>
+        <v>1.055004962472434</v>
       </c>
       <c r="M12">
-        <v>1.022793861233015</v>
+        <v>1.061520270955365</v>
       </c>
       <c r="N12">
-        <v>1.011415634809466</v>
+        <v>1.01761142814097</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9937148615780986</v>
+        <v>1.034541178686223</v>
       </c>
       <c r="D13">
-        <v>1.014248624911756</v>
+        <v>1.038181368199902</v>
       </c>
       <c r="E13">
-        <v>1.000715026012875</v>
+        <v>1.051508862652092</v>
       </c>
       <c r="F13">
-        <v>1.008122925897611</v>
+        <v>1.058049625641109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04431041639651</v>
+        <v>1.041291370640139</v>
       </c>
       <c r="J13">
-        <v>1.023694018692073</v>
+        <v>1.041179696707081</v>
       </c>
       <c r="K13">
-        <v>1.029064706919951</v>
+        <v>1.041775652955728</v>
       </c>
       <c r="L13">
-        <v>1.015784552146766</v>
+        <v>1.055054146449617</v>
       </c>
       <c r="M13">
-        <v>1.02305262377851</v>
+        <v>1.061571359630321</v>
       </c>
       <c r="N13">
-        <v>1.011476315924723</v>
+        <v>1.017622272965927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9946464014866431</v>
+        <v>1.034707768415105</v>
       </c>
       <c r="D14">
-        <v>1.014930553617672</v>
+        <v>1.038306383680941</v>
       </c>
       <c r="E14">
-        <v>1.001678424470597</v>
+        <v>1.05170180043674</v>
       </c>
       <c r="F14">
-        <v>1.009129314523128</v>
+        <v>1.058248592121331</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044676362966848</v>
+        <v>1.041343998385843</v>
       </c>
       <c r="J14">
-        <v>1.024279579986999</v>
+        <v>1.041285263288434</v>
       </c>
       <c r="K14">
-        <v>1.029592896519489</v>
+        <v>1.041868669432731</v>
       </c>
       <c r="L14">
-        <v>1.01658568483552</v>
+        <v>1.055215311711952</v>
       </c>
       <c r="M14">
-        <v>1.023897840599542</v>
+        <v>1.061738761180568</v>
       </c>
       <c r="N14">
-        <v>1.011674463468502</v>
+        <v>1.017657798189826</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9952180642778785</v>
+        <v>1.034810409165976</v>
       </c>
       <c r="D15">
-        <v>1.015349145259249</v>
+        <v>1.03838340865197</v>
       </c>
       <c r="E15">
-        <v>1.002269882674941</v>
+        <v>1.051820698005232</v>
       </c>
       <c r="F15">
-        <v>1.009747112055163</v>
+        <v>1.058371200483858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044900697921369</v>
+        <v>1.041376391908382</v>
       </c>
       <c r="J15">
-        <v>1.024638837331164</v>
+        <v>1.041350290837513</v>
       </c>
       <c r="K15">
-        <v>1.029916937340154</v>
+        <v>1.041925962191861</v>
       </c>
       <c r="L15">
-        <v>1.017077428589207</v>
+        <v>1.055314618842877</v>
       </c>
       <c r="M15">
-        <v>1.024416604053847</v>
+        <v>1.061841907176101</v>
       </c>
       <c r="N15">
-        <v>1.011796033017824</v>
+        <v>1.017679679828713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.998511187530023</v>
+        <v>1.035407812191113</v>
       </c>
       <c r="D16">
-        <v>1.01776207908355</v>
+        <v>1.038831708480981</v>
       </c>
       <c r="E16">
-        <v>1.005680746674718</v>
+        <v>1.052513072795522</v>
       </c>
       <c r="F16">
-        <v>1.01330906234275</v>
+        <v>1.059085117451373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046189368809572</v>
+        <v>1.04156444486508</v>
       </c>
       <c r="J16">
-        <v>1.026707024795263</v>
+        <v>1.041728542260495</v>
       </c>
       <c r="K16">
-        <v>1.031782113769632</v>
+        <v>1.042259159284016</v>
       </c>
       <c r="L16">
-        <v>1.01991180682641</v>
+        <v>1.05589274987332</v>
       </c>
       <c r="M16">
-        <v>1.027406120170176</v>
+        <v>1.062442328312208</v>
       </c>
       <c r="N16">
-        <v>1.012495896823604</v>
+        <v>1.017806939144737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000547553926342</v>
+        <v>1.035782537933672</v>
       </c>
       <c r="D17">
-        <v>1.019255498564143</v>
+        <v>1.039112897946149</v>
       </c>
       <c r="E17">
-        <v>1.007793173587348</v>
+        <v>1.052947680390455</v>
       </c>
       <c r="F17">
-        <v>1.015514353653005</v>
+        <v>1.059533188352548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046983014743532</v>
+        <v>1.041681972587189</v>
       </c>
       <c r="J17">
-        <v>1.027984706694067</v>
+        <v>1.041965600354395</v>
       </c>
       <c r="K17">
-        <v>1.032934127357763</v>
+        <v>1.04246792552944</v>
       </c>
       <c r="L17">
-        <v>1.021665926215083</v>
+        <v>1.05625550251475</v>
       </c>
       <c r="M17">
-        <v>1.029255720444706</v>
+        <v>1.062819015583259</v>
       </c>
       <c r="N17">
-        <v>1.012928258961937</v>
+        <v>1.017886676201999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001725071132954</v>
+        <v>1.036001105679033</v>
       </c>
       <c r="D18">
-        <v>1.020119516388993</v>
+        <v>1.039276904568118</v>
       </c>
       <c r="E18">
-        <v>1.009015843688168</v>
+        <v>1.053201287513733</v>
       </c>
       <c r="F18">
-        <v>1.016790520426947</v>
+        <v>1.059794630546939</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047440758244295</v>
+        <v>1.04175036842812</v>
       </c>
       <c r="J18">
-        <v>1.028723065396941</v>
+        <v>1.042103796888488</v>
       </c>
       <c r="K18">
-        <v>1.033599768508424</v>
+        <v>1.042589608906279</v>
       </c>
       <c r="L18">
-        <v>1.022680745722181</v>
+        <v>1.056467128345846</v>
       </c>
       <c r="M18">
-        <v>1.030325587704223</v>
+        <v>1.063038752167263</v>
       </c>
       <c r="N18">
-        <v>1.013178114904614</v>
+        <v>1.017933153219812</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002124861781545</v>
+        <v>1.036075631043089</v>
       </c>
       <c r="D19">
-        <v>1.020412942951813</v>
+        <v>1.039332825472928</v>
       </c>
       <c r="E19">
-        <v>1.009431163388301</v>
+        <v>1.053287779289289</v>
       </c>
       <c r="F19">
-        <v>1.017223969196508</v>
+        <v>1.059883790852294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047595970087272</v>
+        <v>1.041773663160077</v>
       </c>
       <c r="J19">
-        <v>1.028973674734642</v>
+        <v>1.04215090552874</v>
       </c>
       <c r="K19">
-        <v>1.033825679937168</v>
+        <v>1.042631085118422</v>
       </c>
       <c r="L19">
-        <v>1.023025383438671</v>
+        <v>1.056539293794111</v>
       </c>
       <c r="M19">
-        <v>1.030688887404141</v>
+        <v>1.063113680274407</v>
       </c>
       <c r="N19">
-        <v>1.01326291908799</v>
+        <v>1.017948995204663</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000330139157894</v>
+        <v>1.035742333762371</v>
       </c>
       <c r="D20">
-        <v>1.019096004170367</v>
+        <v>1.039082729637766</v>
       </c>
       <c r="E20">
-        <v>1.007567516588155</v>
+        <v>1.052901039952411</v>
       </c>
       <c r="F20">
-        <v>1.015278802835441</v>
+        <v>1.059485105275286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046898402187354</v>
+        <v>1.041669379118496</v>
       </c>
       <c r="J20">
-        <v>1.027848340423529</v>
+        <v>1.041940174065138</v>
       </c>
       <c r="K20">
-        <v>1.032811183378927</v>
+        <v>1.042445535825087</v>
       </c>
       <c r="L20">
-        <v>1.021478592833559</v>
+        <v>1.056216578623103</v>
       </c>
       <c r="M20">
-        <v>1.029058209896072</v>
+        <v>1.062778598404219</v>
       </c>
       <c r="N20">
-        <v>1.012882113306922</v>
+        <v>1.01787812450571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9943725650527682</v>
+        <v>1.034658712033279</v>
       </c>
       <c r="D21">
-        <v>1.014730070249</v>
+        <v>1.038269569984831</v>
       </c>
       <c r="E21">
-        <v>1.001395171801381</v>
+        <v>1.051644980436885</v>
       </c>
       <c r="F21">
-        <v>1.008833433332083</v>
+        <v>1.058189997588431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04456883838385</v>
+        <v>1.041328507527517</v>
       </c>
       <c r="J21">
-        <v>1.02410746586461</v>
+        <v>1.041254179791018</v>
       </c>
       <c r="K21">
-        <v>1.029437649290286</v>
+        <v>1.041841282098181</v>
       </c>
       <c r="L21">
-        <v>1.01635016034628</v>
+        <v>1.05516785091489</v>
       </c>
       <c r="M21">
-        <v>1.023649364108159</v>
+        <v>1.061689464685013</v>
       </c>
       <c r="N21">
-        <v>1.011616221753762</v>
+        <v>1.017647338276447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9905276111417137</v>
+        <v>1.033977366244956</v>
       </c>
       <c r="D22">
-        <v>1.011917102507293</v>
+        <v>1.037758251531657</v>
       </c>
       <c r="E22">
-        <v>0.9974224277828845</v>
+        <v>1.050856216766317</v>
       </c>
       <c r="F22">
-        <v>1.004682597398151</v>
+        <v>1.057376521926207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043054825156384</v>
+        <v>1.041112783298956</v>
       </c>
       <c r="J22">
-        <v>1.021689261335807</v>
+        <v>1.040822190665279</v>
       </c>
       <c r="K22">
-        <v>1.027256119103025</v>
+        <v>1.041460587915071</v>
       </c>
       <c r="L22">
-        <v>1.013045120404127</v>
+        <v>1.054508818928777</v>
       </c>
       <c r="M22">
-        <v>1.020161858383205</v>
+        <v>1.061004874194899</v>
       </c>
       <c r="N22">
-        <v>1.010797944322457</v>
+        <v>1.017501944445765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9925756391526279</v>
+        <v>1.034338563305031</v>
       </c>
       <c r="D23">
-        <v>1.013414964812135</v>
+        <v>1.038029315858732</v>
       </c>
       <c r="E23">
-        <v>0.9995375055439729</v>
+        <v>1.051274263337134</v>
       </c>
       <c r="F23">
-        <v>1.006892714880292</v>
+        <v>1.05780768404204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043862244009014</v>
+        <v>1.041227275873965</v>
       </c>
       <c r="J23">
-        <v>1.022977676635421</v>
+        <v>1.041051260360432</v>
       </c>
       <c r="K23">
-        <v>1.02841850375306</v>
+        <v>1.041662474510036</v>
       </c>
       <c r="L23">
-        <v>1.014805106037003</v>
+        <v>1.054858151612245</v>
       </c>
       <c r="M23">
-        <v>1.022019174223425</v>
+        <v>1.061367770476799</v>
       </c>
       <c r="N23">
-        <v>1.011233916210147</v>
+        <v>1.017579047834646</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000428411171449</v>
+        <v>1.035760500307346</v>
       </c>
       <c r="D24">
-        <v>1.019168094620888</v>
+        <v>1.039096361417658</v>
       </c>
       <c r="E24">
-        <v>1.007669510477286</v>
+        <v>1.052922114425306</v>
       </c>
       <c r="F24">
-        <v>1.015385269380136</v>
+        <v>1.05950683166988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046936650928787</v>
+        <v>1.041675070047183</v>
       </c>
       <c r="J24">
-        <v>1.027909979725406</v>
+        <v>1.041951663343853</v>
       </c>
       <c r="K24">
-        <v>1.032866755929272</v>
+        <v>1.042455653035802</v>
       </c>
       <c r="L24">
-        <v>1.021563266404738</v>
+        <v>1.056234166535636</v>
       </c>
       <c r="M24">
-        <v>1.029147484079397</v>
+        <v>1.06279686112182</v>
       </c>
       <c r="N24">
-        <v>1.012902971739533</v>
+        <v>1.01788198874883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009141427827083</v>
+        <v>1.037410443374558</v>
       </c>
       <c r="D25">
-        <v>1.025568791281555</v>
+        <v>1.040334353085989</v>
       </c>
       <c r="E25">
-        <v>1.016737421276696</v>
+        <v>1.054838585703012</v>
       </c>
       <c r="F25">
-        <v>1.024845477093815</v>
+        <v>1.061482129625642</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050302382803451</v>
+        <v>1.042188586298147</v>
       </c>
       <c r="J25">
-        <v>1.033365014841819</v>
+        <v>1.042993570170082</v>
       </c>
       <c r="K25">
-        <v>1.037782739919962</v>
+        <v>1.043372700041672</v>
       </c>
       <c r="L25">
-        <v>1.029081350037602</v>
+        <v>1.057832460104854</v>
       </c>
       <c r="M25">
-        <v>1.037069964622269</v>
+        <v>1.064456075931851</v>
       </c>
       <c r="N25">
-        <v>1.014748837356902</v>
+        <v>1.01823226869471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.038726317646665</v>
+        <v>1.015800374697453</v>
       </c>
       <c r="D2">
-        <v>1.041321537703689</v>
+        <v>1.030471903839197</v>
       </c>
       <c r="E2">
-        <v>1.056370576205585</v>
+        <v>1.02370367065003</v>
       </c>
       <c r="F2">
-        <v>1.063060475827773</v>
+        <v>1.032105436795641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042593218532114</v>
+        <v>1.052836690756917</v>
       </c>
       <c r="J2">
-        <v>1.043822191797132</v>
+        <v>1.03751855530562</v>
       </c>
       <c r="K2">
-        <v>1.044101382770303</v>
+        <v>1.041522432364796</v>
       </c>
       <c r="L2">
-        <v>1.059108472584678</v>
+        <v>1.034842364837033</v>
       </c>
       <c r="M2">
-        <v>1.065780137225344</v>
+        <v>1.043134902926462</v>
       </c>
       <c r="N2">
-        <v>1.018510623207622</v>
+        <v>1.016154032488132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03968169000082</v>
+        <v>1.020481003440247</v>
       </c>
       <c r="D3">
-        <v>1.042038172224527</v>
+        <v>1.03392377967662</v>
       </c>
       <c r="E3">
-        <v>1.057484924250156</v>
+        <v>1.028621219455874</v>
       </c>
       <c r="F3">
-        <v>1.06420815509101</v>
+        <v>1.037225942156148</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042884144298797</v>
+        <v>1.054595353031925</v>
       </c>
       <c r="J3">
-        <v>1.044422446679903</v>
+        <v>1.040428491040872</v>
       </c>
       <c r="K3">
-        <v>1.044628868010215</v>
+        <v>1.044140246752444</v>
       </c>
       <c r="L3">
-        <v>1.06003568074297</v>
+        <v>1.038900529222116</v>
       </c>
       <c r="M3">
-        <v>1.066741918185743</v>
+        <v>1.047403675685913</v>
       </c>
       <c r="N3">
-        <v>1.018712133983734</v>
+        <v>1.017138242386931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04029984720686</v>
+        <v>1.023442515824334</v>
       </c>
       <c r="D4">
-        <v>1.042501809280626</v>
+        <v>1.036110007481063</v>
       </c>
       <c r="E4">
-        <v>1.058206903004421</v>
+        <v>1.031742342186837</v>
       </c>
       <c r="F4">
-        <v>1.064951550039955</v>
+        <v>1.04047387010177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043071061864873</v>
+        <v>1.055697323081284</v>
       </c>
       <c r="J4">
-        <v>1.044810202944001</v>
+        <v>1.042264992065573</v>
       </c>
       <c r="K4">
-        <v>1.044969442007843</v>
+        <v>1.045791307503154</v>
       </c>
       <c r="L4">
-        <v>1.060635976154611</v>
+        <v>1.041472184157341</v>
       </c>
       <c r="M4">
-        <v>1.067364438569524</v>
+        <v>1.050107170297446</v>
       </c>
       <c r="N4">
-        <v>1.018842246554351</v>
+        <v>1.017759239352961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04055971230747</v>
+        <v>1.024672047353086</v>
       </c>
       <c r="D5">
-        <v>1.042696703845148</v>
+        <v>1.037018134890634</v>
       </c>
       <c r="E5">
-        <v>1.058510643291825</v>
+        <v>1.033040474210792</v>
       </c>
       <c r="F5">
-        <v>1.065264257458632</v>
+        <v>1.041824262725273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043149323078024</v>
+        <v>1.056152207816856</v>
       </c>
       <c r="J5">
-        <v>1.044973059872502</v>
+        <v>1.043026302398254</v>
       </c>
       <c r="K5">
-        <v>1.045112440605457</v>
+        <v>1.046475475816061</v>
       </c>
       <c r="L5">
-        <v>1.060888419193333</v>
+        <v>1.042540810203103</v>
       </c>
       <c r="M5">
-        <v>1.067626189999342</v>
+        <v>1.051230189812286</v>
       </c>
       <c r="N5">
-        <v>1.018896879008377</v>
+        <v>1.018016628754008</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040603344309946</v>
+        <v>1.024877599478023</v>
       </c>
       <c r="D6">
-        <v>1.042729426392286</v>
+        <v>1.037169981208576</v>
       </c>
       <c r="E6">
-        <v>1.058561655545792</v>
+        <v>1.033257632380552</v>
       </c>
       <c r="F6">
-        <v>1.065316773208215</v>
+        <v>1.042050135160158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04316244476845</v>
+        <v>1.056228099962403</v>
       </c>
       <c r="J6">
-        <v>1.045000395116837</v>
+        <v>1.043153509165899</v>
       </c>
       <c r="K6">
-        <v>1.045136440203758</v>
+        <v>1.046589776878544</v>
       </c>
       <c r="L6">
-        <v>1.060930810111469</v>
+        <v>1.042719518099889</v>
       </c>
       <c r="M6">
-        <v>1.067670141784228</v>
+        <v>1.051417970955144</v>
       </c>
       <c r="N6">
-        <v>1.018906048109878</v>
+        <v>1.018059633199788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040303319569706</v>
+        <v>1.023459004982841</v>
       </c>
       <c r="D7">
-        <v>1.042504413544958</v>
+        <v>1.036122184514996</v>
       </c>
       <c r="E7">
-        <v>1.058210960731003</v>
+        <v>1.031759742105404</v>
       </c>
       <c r="F7">
-        <v>1.064955727728181</v>
+        <v>1.040491972404485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043072108848617</v>
+        <v>1.05570343391184</v>
       </c>
       <c r="J7">
-        <v>1.044812379659064</v>
+        <v>1.042275206528743</v>
       </c>
       <c r="K7">
-        <v>1.044971353464996</v>
+        <v>1.045800488032198</v>
       </c>
       <c r="L7">
-        <v>1.060639349001138</v>
+        <v>1.041486511668855</v>
       </c>
       <c r="M7">
-        <v>1.067367935932764</v>
+        <v>1.050122228632708</v>
       </c>
       <c r="N7">
-        <v>1.018842976818916</v>
+        <v>1.017762692902657</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039049196722472</v>
+        <v>1.017396489191698</v>
       </c>
       <c r="D8">
-        <v>1.041563742363562</v>
+        <v>1.031648522383825</v>
       </c>
       <c r="E8">
-        <v>1.056746984582709</v>
+        <v>1.025378541247494</v>
       </c>
       <c r="F8">
-        <v>1.063448179976226</v>
+        <v>1.033849854829777</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042691813626883</v>
+        <v>1.05343863932354</v>
       </c>
       <c r="J8">
-        <v>1.044025184788609</v>
+        <v>1.038511815998021</v>
       </c>
       <c r="K8">
-        <v>1.044279802647854</v>
+        <v>1.042416202604159</v>
       </c>
       <c r="L8">
-        <v>1.059421758593843</v>
+        <v>1.036225376263164</v>
       </c>
       <c r="M8">
-        <v>1.066105137464375</v>
+        <v>1.044590028304137</v>
       </c>
       <c r="N8">
-        <v>1.018578782221269</v>
+        <v>1.016490005995109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036839039112034</v>
+        <v>1.006170817827114</v>
       </c>
       <c r="D9">
-        <v>1.039905636051134</v>
+        <v>1.023384581820161</v>
       </c>
       <c r="E9">
-        <v>1.054174329147056</v>
+        <v>1.0136401111008</v>
       </c>
       <c r="F9">
-        <v>1.060797587073086</v>
+        <v>1.021615388742893</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042011506098652</v>
+        <v>1.049160771311349</v>
       </c>
       <c r="J9">
-        <v>1.0426330990818</v>
+        <v>1.031507534773779</v>
       </c>
       <c r="K9">
-        <v>1.043055525559526</v>
+        <v>1.036109320855193</v>
       </c>
       <c r="L9">
-        <v>1.057278737856202</v>
+        <v>1.026515696556314</v>
       </c>
       <c r="M9">
-        <v>1.063881338690812</v>
+        <v>1.034367242400131</v>
       </c>
       <c r="N9">
-        <v>1.018111115478463</v>
+        <v>1.014120335589634</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035365464114954</v>
+        <v>0.9982796483138174</v>
       </c>
       <c r="D10">
-        <v>1.038799930512709</v>
+        <v>1.017592338112971</v>
       </c>
       <c r="E10">
-        <v>1.052463972546998</v>
+        <v>1.005440718982951</v>
       </c>
       <c r="F10">
-        <v>1.059034493304574</v>
+        <v>1.013058448197663</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041551141986512</v>
+        <v>1.046098970030806</v>
       </c>
       <c r="J10">
-        <v>1.041701742215055</v>
+        <v>1.026561688751686</v>
       </c>
       <c r="K10">
-        <v>1.042235555002988</v>
+        <v>1.031651059790414</v>
       </c>
       <c r="L10">
-        <v>1.055851760521005</v>
+        <v>1.019712429531852</v>
       </c>
       <c r="M10">
-        <v>1.062399761902335</v>
+        <v>1.027195864256555</v>
       </c>
       <c r="N10">
-        <v>1.017797923729422</v>
+        <v>1.012446715659095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034727360880945</v>
+        <v>0.9947556569142599</v>
       </c>
       <c r="D11">
-        <v>1.038321086547767</v>
+        <v>1.015010547901464</v>
       </c>
       <c r="E11">
-        <v>1.051724494709038</v>
+        <v>1.001791448718867</v>
       </c>
       <c r="F11">
-        <v>1.058271994940317</v>
+        <v>1.009247375227089</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041350183672612</v>
+        <v>1.044719251616078</v>
       </c>
       <c r="J11">
-        <v>1.041297676889473</v>
+        <v>1.024348245938622</v>
       </c>
       <c r="K11">
-        <v>1.041879606723164</v>
+        <v>1.029654832470732</v>
       </c>
       <c r="L11">
-        <v>1.055234267338833</v>
+        <v>1.016679659834137</v>
       </c>
       <c r="M11">
-        <v>1.061758449790927</v>
+        <v>1.023996981556041</v>
       </c>
       <c r="N11">
-        <v>1.017661975424502</v>
+        <v>1.01169769938449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034490335762843</v>
+        <v>0.9934296380569921</v>
       </c>
       <c r="D12">
-        <v>1.038143213403819</v>
+        <v>1.014039872835111</v>
       </c>
       <c r="E12">
-        <v>1.051449987519375</v>
+        <v>1.000420145842851</v>
       </c>
       <c r="F12">
-        <v>1.057988909100592</v>
+        <v>1.007814865673966</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041275295994724</v>
+        <v>1.044198274389306</v>
       </c>
       <c r="J12">
-        <v>1.041147471942907</v>
+        <v>1.023514694112039</v>
       </c>
       <c r="K12">
-        <v>1.041747257544172</v>
+        <v>1.028902945177813</v>
       </c>
       <c r="L12">
-        <v>1.055004962472434</v>
+        <v>1.015539300945781</v>
       </c>
       <c r="M12">
-        <v>1.061520270955365</v>
+        <v>1.022793861233015</v>
       </c>
       <c r="N12">
-        <v>1.01761142814097</v>
+        <v>1.011415634809466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034541178686223</v>
+        <v>0.9937148615780987</v>
       </c>
       <c r="D13">
-        <v>1.038181368199902</v>
+        <v>1.014248624911756</v>
       </c>
       <c r="E13">
-        <v>1.051508862652092</v>
+        <v>1.000715026012875</v>
       </c>
       <c r="F13">
-        <v>1.058049625641109</v>
+        <v>1.008122925897612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041291370640139</v>
+        <v>1.04431041639651</v>
       </c>
       <c r="J13">
-        <v>1.041179696707081</v>
+        <v>1.023694018692073</v>
       </c>
       <c r="K13">
-        <v>1.041775652955728</v>
+        <v>1.02906470691995</v>
       </c>
       <c r="L13">
-        <v>1.055054146449617</v>
+        <v>1.015784552146767</v>
       </c>
       <c r="M13">
-        <v>1.061571359630321</v>
+        <v>1.02305262377851</v>
       </c>
       <c r="N13">
-        <v>1.017622272965927</v>
+        <v>1.011476315924723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034707768415105</v>
+        <v>0.9946464014866426</v>
       </c>
       <c r="D14">
-        <v>1.038306383680941</v>
+        <v>1.014930553617672</v>
       </c>
       <c r="E14">
-        <v>1.05170180043674</v>
+        <v>1.001678424470597</v>
       </c>
       <c r="F14">
-        <v>1.058248592121331</v>
+        <v>1.009129314523128</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041343998385843</v>
+        <v>1.044676362966849</v>
       </c>
       <c r="J14">
-        <v>1.041285263288434</v>
+        <v>1.024279579986999</v>
       </c>
       <c r="K14">
-        <v>1.041868669432731</v>
+        <v>1.029592896519489</v>
       </c>
       <c r="L14">
-        <v>1.055215311711952</v>
+        <v>1.01658568483552</v>
       </c>
       <c r="M14">
-        <v>1.061738761180568</v>
+        <v>1.023897840599542</v>
       </c>
       <c r="N14">
-        <v>1.017657798189826</v>
+        <v>1.011674463468502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034810409165976</v>
+        <v>0.9952180642778774</v>
       </c>
       <c r="D15">
-        <v>1.03838340865197</v>
+        <v>1.015349145259248</v>
       </c>
       <c r="E15">
-        <v>1.051820698005232</v>
+        <v>1.002269882674941</v>
       </c>
       <c r="F15">
-        <v>1.058371200483858</v>
+        <v>1.009747112055163</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041376391908382</v>
+        <v>1.044900697921369</v>
       </c>
       <c r="J15">
-        <v>1.041350290837513</v>
+        <v>1.024638837331163</v>
       </c>
       <c r="K15">
-        <v>1.041925962191861</v>
+        <v>1.029916937340154</v>
       </c>
       <c r="L15">
-        <v>1.055314618842877</v>
+        <v>1.017077428589207</v>
       </c>
       <c r="M15">
-        <v>1.061841907176101</v>
+        <v>1.024416604053847</v>
       </c>
       <c r="N15">
-        <v>1.017679679828713</v>
+        <v>1.011796033017824</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035407812191113</v>
+        <v>0.9985111875300224</v>
       </c>
       <c r="D16">
-        <v>1.038831708480981</v>
+        <v>1.01776207908355</v>
       </c>
       <c r="E16">
-        <v>1.052513072795522</v>
+        <v>1.005680746674718</v>
       </c>
       <c r="F16">
-        <v>1.059085117451373</v>
+        <v>1.013309062342749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04156444486508</v>
+        <v>1.046189368809572</v>
       </c>
       <c r="J16">
-        <v>1.041728542260495</v>
+        <v>1.026707024795263</v>
       </c>
       <c r="K16">
-        <v>1.042259159284016</v>
+        <v>1.031782113769631</v>
       </c>
       <c r="L16">
-        <v>1.05589274987332</v>
+        <v>1.01991180682641</v>
       </c>
       <c r="M16">
-        <v>1.062442328312208</v>
+        <v>1.027406120170175</v>
       </c>
       <c r="N16">
-        <v>1.017806939144737</v>
+        <v>1.012495896823604</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035782537933672</v>
+        <v>1.000547553926343</v>
       </c>
       <c r="D17">
-        <v>1.039112897946149</v>
+        <v>1.019255498564144</v>
       </c>
       <c r="E17">
-        <v>1.052947680390455</v>
+        <v>1.007793173587349</v>
       </c>
       <c r="F17">
-        <v>1.059533188352548</v>
+        <v>1.015514353653006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041681972587189</v>
+        <v>1.046983014743532</v>
       </c>
       <c r="J17">
-        <v>1.041965600354395</v>
+        <v>1.027984706694068</v>
       </c>
       <c r="K17">
-        <v>1.04246792552944</v>
+        <v>1.032934127357763</v>
       </c>
       <c r="L17">
-        <v>1.05625550251475</v>
+        <v>1.021665926215084</v>
       </c>
       <c r="M17">
-        <v>1.062819015583259</v>
+        <v>1.029255720444707</v>
       </c>
       <c r="N17">
-        <v>1.017886676201999</v>
+        <v>1.012928258961937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036001105679033</v>
+        <v>1.001725071132955</v>
       </c>
       <c r="D18">
-        <v>1.039276904568118</v>
+        <v>1.020119516388994</v>
       </c>
       <c r="E18">
-        <v>1.053201287513733</v>
+        <v>1.009015843688169</v>
       </c>
       <c r="F18">
-        <v>1.059794630546939</v>
+        <v>1.016790520426948</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04175036842812</v>
+        <v>1.047440758244295</v>
       </c>
       <c r="J18">
-        <v>1.042103796888488</v>
+        <v>1.028723065396943</v>
       </c>
       <c r="K18">
-        <v>1.042589608906279</v>
+        <v>1.033599768508425</v>
       </c>
       <c r="L18">
-        <v>1.056467128345846</v>
+        <v>1.022680745722182</v>
       </c>
       <c r="M18">
-        <v>1.063038752167263</v>
+        <v>1.030325587704225</v>
       </c>
       <c r="N18">
-        <v>1.017933153219812</v>
+        <v>1.013178114904614</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036075631043089</v>
+        <v>1.002124861781544</v>
       </c>
       <c r="D19">
-        <v>1.039332825472928</v>
+        <v>1.020412942951813</v>
       </c>
       <c r="E19">
-        <v>1.053287779289289</v>
+        <v>1.009431163388301</v>
       </c>
       <c r="F19">
-        <v>1.059883790852294</v>
+        <v>1.017223969196508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041773663160077</v>
+        <v>1.047595970087272</v>
       </c>
       <c r="J19">
-        <v>1.04215090552874</v>
+        <v>1.028973674734642</v>
       </c>
       <c r="K19">
-        <v>1.042631085118422</v>
+        <v>1.033825679937168</v>
       </c>
       <c r="L19">
-        <v>1.056539293794111</v>
+        <v>1.023025383438671</v>
       </c>
       <c r="M19">
-        <v>1.063113680274407</v>
+        <v>1.030688887404141</v>
       </c>
       <c r="N19">
-        <v>1.017948995204663</v>
+        <v>1.01326291908799</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035742333762371</v>
+        <v>1.000330139157894</v>
       </c>
       <c r="D20">
-        <v>1.039082729637766</v>
+        <v>1.019096004170368</v>
       </c>
       <c r="E20">
-        <v>1.052901039952411</v>
+        <v>1.007567516588155</v>
       </c>
       <c r="F20">
-        <v>1.059485105275286</v>
+        <v>1.015278802835442</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041669379118496</v>
+        <v>1.046898402187354</v>
       </c>
       <c r="J20">
-        <v>1.041940174065138</v>
+        <v>1.027848340423529</v>
       </c>
       <c r="K20">
-        <v>1.042445535825087</v>
+        <v>1.032811183378927</v>
       </c>
       <c r="L20">
-        <v>1.056216578623103</v>
+        <v>1.02147859283356</v>
       </c>
       <c r="M20">
-        <v>1.062778598404219</v>
+        <v>1.029058209896072</v>
       </c>
       <c r="N20">
-        <v>1.01787812450571</v>
+        <v>1.012882113306923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034658712033279</v>
+        <v>0.9943725650527677</v>
       </c>
       <c r="D21">
-        <v>1.038269569984831</v>
+        <v>1.014730070248999</v>
       </c>
       <c r="E21">
-        <v>1.051644980436885</v>
+        <v>1.001395171801381</v>
       </c>
       <c r="F21">
-        <v>1.058189997588431</v>
+        <v>1.008833433332083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041328507527517</v>
+        <v>1.044568838383849</v>
       </c>
       <c r="J21">
-        <v>1.041254179791018</v>
+        <v>1.02410746586461</v>
       </c>
       <c r="K21">
-        <v>1.041841282098181</v>
+        <v>1.029437649290285</v>
       </c>
       <c r="L21">
-        <v>1.05516785091489</v>
+        <v>1.01635016034628</v>
       </c>
       <c r="M21">
-        <v>1.061689464685013</v>
+        <v>1.02364936410816</v>
       </c>
       <c r="N21">
-        <v>1.017647338276447</v>
+        <v>1.011616221753762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033977366244956</v>
+        <v>0.9905276111417141</v>
       </c>
       <c r="D22">
-        <v>1.037758251531657</v>
+        <v>1.011917102507293</v>
       </c>
       <c r="E22">
-        <v>1.050856216766317</v>
+        <v>0.9974224277828847</v>
       </c>
       <c r="F22">
-        <v>1.057376521926207</v>
+        <v>1.004682597398151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041112783298956</v>
+        <v>1.043054825156385</v>
       </c>
       <c r="J22">
-        <v>1.040822190665279</v>
+        <v>1.021689261335807</v>
       </c>
       <c r="K22">
-        <v>1.041460587915071</v>
+        <v>1.027256119103024</v>
       </c>
       <c r="L22">
-        <v>1.054508818928777</v>
+        <v>1.013045120404127</v>
       </c>
       <c r="M22">
-        <v>1.061004874194899</v>
+        <v>1.020161858383205</v>
       </c>
       <c r="N22">
-        <v>1.017501944445765</v>
+        <v>1.010797944322457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034338563305031</v>
+        <v>0.9925756391526266</v>
       </c>
       <c r="D23">
-        <v>1.038029315858732</v>
+        <v>1.013414964812134</v>
       </c>
       <c r="E23">
-        <v>1.051274263337134</v>
+        <v>0.9995375055439731</v>
       </c>
       <c r="F23">
-        <v>1.05780768404204</v>
+        <v>1.006892714880291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041227275873965</v>
+        <v>1.043862244009013</v>
       </c>
       <c r="J23">
-        <v>1.041051260360432</v>
+        <v>1.02297767663542</v>
       </c>
       <c r="K23">
-        <v>1.041662474510036</v>
+        <v>1.028418503753059</v>
       </c>
       <c r="L23">
-        <v>1.054858151612245</v>
+        <v>1.014805106037002</v>
       </c>
       <c r="M23">
-        <v>1.061367770476799</v>
+        <v>1.022019174223424</v>
       </c>
       <c r="N23">
-        <v>1.017579047834646</v>
+        <v>1.011233916210147</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035760500307346</v>
+        <v>1.000428411171448</v>
       </c>
       <c r="D24">
-        <v>1.039096361417658</v>
+        <v>1.019168094620887</v>
       </c>
       <c r="E24">
-        <v>1.052922114425306</v>
+        <v>1.007669510477286</v>
       </c>
       <c r="F24">
-        <v>1.05950683166988</v>
+        <v>1.015385269380137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041675070047183</v>
+        <v>1.046936650928787</v>
       </c>
       <c r="J24">
-        <v>1.041951663343853</v>
+        <v>1.027909979725406</v>
       </c>
       <c r="K24">
-        <v>1.042455653035802</v>
+        <v>1.032866755929271</v>
       </c>
       <c r="L24">
-        <v>1.056234166535636</v>
+        <v>1.021563266404738</v>
       </c>
       <c r="M24">
-        <v>1.06279686112182</v>
+        <v>1.029147484079397</v>
       </c>
       <c r="N24">
-        <v>1.01788198874883</v>
+        <v>1.012902971739533</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037410443374558</v>
+        <v>1.009141427827082</v>
       </c>
       <c r="D25">
-        <v>1.040334353085989</v>
+        <v>1.025568791281553</v>
       </c>
       <c r="E25">
-        <v>1.054838585703012</v>
+        <v>1.016737421276695</v>
       </c>
       <c r="F25">
-        <v>1.061482129625642</v>
+        <v>1.024845477093814</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042188586298147</v>
+        <v>1.05030238280345</v>
       </c>
       <c r="J25">
-        <v>1.042993570170082</v>
+        <v>1.033365014841818</v>
       </c>
       <c r="K25">
-        <v>1.043372700041672</v>
+        <v>1.037782739919961</v>
       </c>
       <c r="L25">
-        <v>1.057832460104854</v>
+        <v>1.029081350037602</v>
       </c>
       <c r="M25">
-        <v>1.064456075931851</v>
+        <v>1.037069964622268</v>
       </c>
       <c r="N25">
-        <v>1.01823226869471</v>
+        <v>1.014748837356902</v>
       </c>
     </row>
   </sheetData>
